--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>912702.9862066993</v>
+        <v>944618.1494714573</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7316148.572415492</v>
+        <v>7347714.231257801</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.8212597398785</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,16 +665,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>282.2418990067815</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +823,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>100.176219543324</v>
+        <v>190.3243072082674</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>408.2308606767916</v>
       </c>
       <c r="C5" t="n">
-        <v>327.2879775827831</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>138.3792129943166</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43589881192459</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.40926378223799</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>244.6538412157983</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659479</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1579,13 +1579,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946036</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>144.4937753855475</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,10 +1607,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>248.5652704317908</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218106</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>198.9373250430709</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>381.4061090983712</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>33.08339867820196</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.5532963163073</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>237.2534186025699</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>33.08339867820281</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="26">
@@ -2728,40 +2728,40 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907173</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3196,16 +3196,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>31.28831241118254</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,13 +3481,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>248.9284599389397</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3506,7 +3506,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773008</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3749,7 +3749,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948849</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3907,13 +3907,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513542</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>122.974276743058</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.990622819019141</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>41.94061297377363</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1117.169145538664</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1083.067076762491</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1051.19769597734</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>766.1048686977626</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489122</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489122</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489122</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489122</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1739.711376797682</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756277</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.71235369317</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2371.71235369317</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>2371.71235369317</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>2371.71235369317</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>2370.897303144608</v>
       </c>
       <c r="X2" t="n">
-        <v>435.3194362350473</v>
+        <v>1951.754839723918</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.0737165751048</v>
+        <v>1543.468716023572</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.8429367339742</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064427</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>1039.505495936743</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>866.9437844199682</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>701.0657916214909</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>531.3077878722282</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>354.6007338339845</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>189.0094588598122</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>323.8657391213222</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="U4" t="n">
-        <v>1595.995329531605</v>
+        <v>2263.117452551488</v>
       </c>
       <c r="V4" t="n">
-        <v>1309.039821402036</v>
+        <v>1976.161944421918</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.013416988327</v>
+        <v>1704.13554000821</v>
       </c>
       <c r="X4" t="n">
-        <v>791.6216623217397</v>
+        <v>1458.743785341622</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.2019916358479</v>
+        <v>1231.32411465573</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.680625966315</v>
+        <v>462.4809763712854</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108188</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.7206514241503</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.332608038895</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.377099909325</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>838.3506954956167</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>592.9589408290292</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.5392701431375</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892348</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1736.138515466162</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1300.228730640606</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4539857989012</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>438.586556208109</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114307</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105271</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105271</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105271</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105271</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105271</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925642</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.78172237708</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996794</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336852</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.77193545851284</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>36.77193545851284</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>36.77193545851284</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77193545851284</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851284</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851284</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851284</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296484</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>729.7402717976095</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>729.7402717976095</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1171.999074955254</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1591.668324181035</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631014</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929011</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507466</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760571</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>846.6696276310015</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>574.6432232172931</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>329.2514685507056</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>101.8317978648138</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.30874198473</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168153</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342598</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146351</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>352.5751665457814</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N11" t="n">
-        <v>2492.071939528658</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3472.251606098964</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4300.561480932361</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055758</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590674</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169985</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469638</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935314</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,16 +5221,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713471</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
         <v>1883.888462243221</v>
@@ -5242,7 +5242,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.30874198473</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245547</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590674</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169985</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469638</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1009.916144494519</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>837.3544329777442</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284814</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583914</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U16" t="n">
-        <v>2189.083139415475</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>1902.127631285905</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1630.101226872197</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1429.154433899398</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1201.734763213506</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2472.72409529553</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2034.581622478953</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5519,46 +5519,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.381259633333</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4493.924657556614</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>4131.30770749044</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3726.452252901474</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2899.023665780438</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5662,16 +5662,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,22 +5698,22 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
         <v>1139.050632477034</v>
@@ -5738,16 +5738,16 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146351</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5777,25 +5777,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4803.381259633332</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.381259633332</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>965.4711828007304</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>792.9094712839553</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>627.0314784854783</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>457.2734747362155</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>280.5664206979717</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162926</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519717</v>
       </c>
     </row>
     <row r="23">
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,22 +6172,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
         <v>1144.575496066698</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736201</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751428</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258801</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876363</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.500009313464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2506.656904206056</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7409,52 +7409,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405613</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D43" t="n">
-        <v>754.219347342084</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928213</v>
+        <v>303.5569696238766</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7673,25 +7673,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.710185817962</v>
+        <v>1041.416826573036</v>
       </c>
       <c r="C46" t="n">
-        <v>926.1484743011866</v>
+        <v>868.8551150562606</v>
       </c>
       <c r="D46" t="n">
-        <v>760.2704815027093</v>
+        <v>702.9771222577833</v>
       </c>
       <c r="E46" t="n">
-        <v>590.5124777534467</v>
+        <v>533.2191185085205</v>
       </c>
       <c r="F46" t="n">
-        <v>413.8054237152028</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>248.2141487410305</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>108.311974431405</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7840,16 +7840,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
-        <v>1763.340229889428</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X46" t="n">
-        <v>1517.94847522284</v>
+        <v>1460.655115977915</v>
       </c>
       <c r="Y46" t="n">
-        <v>1290.528804536949</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805803745</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854907</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>44.81797281350418</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706684</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,7 +8617,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>249.422675499603</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>258.4234241057235</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>541.6538920438361</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>973.8822356326327</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>184.7831561774894</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.0111327346211</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>185.1957776566201</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>267.5985112554893</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>44.00051207685074</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.14457787892866</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>184.7831561774898</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>184.7831561774888</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.73195639979855</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081413</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>212.1323395461467</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>35.15749310933413</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,10 +25834,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>81.78272691405228</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>227.3655273957978</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>620422.7848562052</v>
+        <v>630142.0500078924</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>620422.7848562052</v>
+        <v>632894.2869138726</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>622235.5896380726</v>
+        <v>632894.2869138726</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620549.7978662417</v>
+        <v>620549.7978662419</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620549.7978662418</v>
+        <v>620549.797866242</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620549.7978662418</v>
+        <v>620549.797866242</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620549.7978662417</v>
+        <v>620549.7978662418</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646737.7084496375</v>
+        <v>646737.7084496378</v>
       </c>
     </row>
     <row r="11">
@@ -26320,16 +26320,16 @@
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>328590.5336815895</v>
+        <v>328590.5336815897</v>
       </c>
       <c r="F2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815898</v>
       </c>
       <c r="G2" t="n">
         <v>328590.5336815897</v>
       </c>
       <c r="H2" t="n">
-        <v>328590.5336815898</v>
+        <v>328590.5336815896</v>
       </c>
       <c r="I2" t="n">
         <v>342457.4296892789</v>
@@ -26347,13 +26347,13 @@
         <v>342457.4296892789</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892788</v>
       </c>
       <c r="O2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="P2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.4296892789</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390697</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.0085678454</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999512</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.592948386</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856657</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856657</v>
       </c>
       <c r="G4" t="n">
-        <v>65247.19221856657</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="H4" t="n">
         <v>65247.19221856655</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
@@ -26445,19 +26445,19 @@
         <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933278</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933277</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52949.15711468248</v>
+        <v>-94334.01693323022</v>
       </c>
       <c r="C6" t="n">
-        <v>89242.14354502739</v>
+        <v>100306.0477404269</v>
       </c>
       <c r="D6" t="n">
-        <v>82389.08735990658</v>
+        <v>117646.5921143339</v>
       </c>
       <c r="E6" t="n">
-        <v>-33975.29456665146</v>
+        <v>28012.36542046432</v>
       </c>
       <c r="F6" t="n">
-        <v>189823.9991853756</v>
+        <v>189747.4406305789</v>
       </c>
       <c r="G6" t="n">
-        <v>189823.9991853756</v>
+        <v>189747.4406305788</v>
       </c>
       <c r="H6" t="n">
-        <v>189823.9991853757</v>
+        <v>189747.4406305787</v>
       </c>
       <c r="I6" t="n">
-        <v>178373.777161314</v>
+        <v>178350.5528219315</v>
       </c>
       <c r="J6" t="n">
-        <v>85724.02744916338</v>
+        <v>36107.43896915791</v>
       </c>
       <c r="K6" t="n">
-        <v>196738.4927941536</v>
+        <v>182901.2598869255</v>
       </c>
       <c r="L6" t="n">
-        <v>187790.8817056434</v>
+        <v>196715.2684547709</v>
       </c>
       <c r="M6" t="n">
-        <v>9947.506183686259</v>
+        <v>61725.32384176744</v>
       </c>
       <c r="N6" t="n">
-        <v>196738.4927941537</v>
+        <v>196715.2684547709</v>
       </c>
       <c r="O6" t="n">
-        <v>196738.4927941537</v>
+        <v>196715.2684547711</v>
       </c>
       <c r="P6" t="n">
-        <v>196738.4927941535</v>
+        <v>196715.268454771</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147.2153150401801</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,16 +27385,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>147.1950983865063</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27591,7 +27591,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>175.4724511961017</v>
+        <v>85.32436353115827</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>13.80571410326706</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>106.4730705056278</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>32.45688140729075</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>86.14502017843148</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>374.3251492764863</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.4911687495593</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28029,7 +28029,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.151079231931362e-12</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805803745</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854907</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>44.81797281350418</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706684</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>249.422675499603</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>258.4234241057235</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>541.6538920438361</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36519,10 +36519,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>973.8822356326327</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
